--- a/data/norm.cause-of-death-2015.xlsx
+++ b/data/norm.cause-of-death-2015.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,95 +441,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -552,60 +547,57 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K2" t="n">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="L2" t="n">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="M2" t="n">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="N2" t="n">
-        <v>246</v>
+        <v>385</v>
       </c>
       <c r="O2" t="n">
-        <v>385</v>
+        <v>464</v>
       </c>
       <c r="P2" t="n">
-        <v>464</v>
+        <v>594</v>
       </c>
       <c r="Q2" t="n">
-        <v>594</v>
+        <v>639</v>
       </c>
       <c r="R2" t="n">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="S2" t="n">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="T2" t="n">
-        <v>604</v>
+        <v>521</v>
       </c>
       <c r="U2" t="n">
-        <v>521</v>
-      </c>
-      <c r="V2" t="n">
         <v>556</v>
       </c>
     </row>
@@ -626,60 +618,57 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I3" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J3" t="n">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="K3" t="n">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="L3" t="n">
-        <v>216</v>
+        <v>405</v>
       </c>
       <c r="M3" t="n">
-        <v>405</v>
+        <v>707</v>
       </c>
       <c r="N3" t="n">
-        <v>707</v>
+        <v>1307</v>
       </c>
       <c r="O3" t="n">
-        <v>1307</v>
+        <v>1640</v>
       </c>
       <c r="P3" t="n">
-        <v>1640</v>
+        <v>2164</v>
       </c>
       <c r="Q3" t="n">
-        <v>2164</v>
+        <v>2251</v>
       </c>
       <c r="R3" t="n">
-        <v>2251</v>
+        <v>1815</v>
       </c>
       <c r="S3" t="n">
-        <v>1815</v>
+        <v>1355</v>
       </c>
       <c r="T3" t="n">
-        <v>1355</v>
+        <v>864</v>
       </c>
       <c r="U3" t="n">
-        <v>864</v>
-      </c>
-      <c r="V3" t="n">
         <v>535</v>
       </c>
     </row>
@@ -700,60 +689,57 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
       <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="P4" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="n">
+        <v>51</v>
+      </c>
+      <c r="R4" t="n">
+        <v>50</v>
+      </c>
+      <c r="S4" t="n">
+        <v>31</v>
+      </c>
+      <c r="T4" t="n">
         <v>35</v>
       </c>
-      <c r="R4" t="n">
-        <v>51</v>
-      </c>
-      <c r="S4" t="n">
-        <v>50</v>
-      </c>
-      <c r="T4" t="n">
-        <v>31</v>
-      </c>
       <c r="U4" t="n">
-        <v>35</v>
-      </c>
-      <c r="V4" t="n">
         <v>36</v>
       </c>
     </row>
@@ -774,60 +760,57 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
         <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K5" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="L5" t="n">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="M5" t="n">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="N5" t="n">
-        <v>268</v>
+        <v>538</v>
       </c>
       <c r="O5" t="n">
-        <v>538</v>
+        <v>819</v>
       </c>
       <c r="P5" t="n">
-        <v>819</v>
+        <v>1291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1291</v>
+        <v>1621</v>
       </c>
       <c r="R5" t="n">
-        <v>1621</v>
+        <v>1684</v>
       </c>
       <c r="S5" t="n">
-        <v>1684</v>
+        <v>1476</v>
       </c>
       <c r="T5" t="n">
-        <v>1476</v>
+        <v>1221</v>
       </c>
       <c r="U5" t="n">
-        <v>1221</v>
-      </c>
-      <c r="V5" t="n">
         <v>965</v>
       </c>
     </row>
@@ -848,13 +831,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -863,45 +846,42 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O6" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P6" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="R6" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="S6" t="n">
         <v>28</v>
       </c>
       <c r="T6" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>15</v>
-      </c>
-      <c r="V6" t="n">
         <v>16</v>
       </c>
     </row>
@@ -922,60 +902,57 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
+        <v>32</v>
+      </c>
+      <c r="G7" t="n">
+        <v>48</v>
+      </c>
+      <c r="H7" t="n">
         <v>38</v>
       </c>
-      <c r="G7" t="n">
-        <v>32</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
+        <v>39</v>
+      </c>
+      <c r="J7" t="n">
         <v>48</v>
       </c>
-      <c r="I7" t="n">
-        <v>38</v>
-      </c>
-      <c r="J7" t="n">
-        <v>39</v>
-      </c>
       <c r="K7" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L7" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="M7" t="n">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="N7" t="n">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="O7" t="n">
-        <v>195</v>
+        <v>385</v>
       </c>
       <c r="P7" t="n">
-        <v>385</v>
+        <v>652</v>
       </c>
       <c r="Q7" t="n">
-        <v>652</v>
+        <v>1131</v>
       </c>
       <c r="R7" t="n">
-        <v>1131</v>
+        <v>1661</v>
       </c>
       <c r="S7" t="n">
-        <v>1661</v>
+        <v>2033</v>
       </c>
       <c r="T7" t="n">
-        <v>2033</v>
+        <v>2271</v>
       </c>
       <c r="U7" t="n">
-        <v>2271</v>
-      </c>
-      <c r="V7" t="n">
         <v>2833</v>
       </c>
     </row>
@@ -1017,39 +994,36 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>2</v>
       </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
-      </c>
-      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1123,9 +1097,6 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1144,60 +1115,57 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H10" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="I10" t="n">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="J10" t="n">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="K10" t="n">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="L10" t="n">
-        <v>400</v>
+        <v>624</v>
       </c>
       <c r="M10" t="n">
-        <v>624</v>
+        <v>1150</v>
       </c>
       <c r="N10" t="n">
-        <v>1150</v>
+        <v>1977</v>
       </c>
       <c r="O10" t="n">
-        <v>1977</v>
+        <v>2894</v>
       </c>
       <c r="P10" t="n">
-        <v>2894</v>
+        <v>3845</v>
       </c>
       <c r="Q10" t="n">
-        <v>3845</v>
+        <v>4709</v>
       </c>
       <c r="R10" t="n">
-        <v>4709</v>
+        <v>4732</v>
       </c>
       <c r="S10" t="n">
-        <v>4732</v>
+        <v>4611</v>
       </c>
       <c r="T10" t="n">
-        <v>4611</v>
+        <v>3954</v>
       </c>
       <c r="U10" t="n">
-        <v>3954</v>
-      </c>
-      <c r="V10" t="n">
         <v>4194</v>
       </c>
     </row>
@@ -1218,60 +1186,57 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
+        <v>49</v>
+      </c>
+      <c r="F11" t="n">
         <v>54</v>
       </c>
-      <c r="F11" t="n">
-        <v>49</v>
-      </c>
       <c r="G11" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H11" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I11" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J11" t="n">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="K11" t="n">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L11" t="n">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="M11" t="n">
-        <v>181</v>
+        <v>289</v>
       </c>
       <c r="N11" t="n">
-        <v>289</v>
+        <v>485</v>
       </c>
       <c r="O11" t="n">
-        <v>485</v>
+        <v>786</v>
       </c>
       <c r="P11" t="n">
-        <v>786</v>
+        <v>1091</v>
       </c>
       <c r="Q11" t="n">
-        <v>1091</v>
+        <v>1637</v>
       </c>
       <c r="R11" t="n">
-        <v>1637</v>
+        <v>2029</v>
       </c>
       <c r="S11" t="n">
-        <v>2029</v>
+        <v>2083</v>
       </c>
       <c r="T11" t="n">
-        <v>2083</v>
+        <v>1986</v>
       </c>
       <c r="U11" t="n">
-        <v>1986</v>
-      </c>
-      <c r="V11" t="n">
         <v>2340</v>
       </c>
     </row>
@@ -1292,60 +1257,57 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I12" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K12" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="L12" t="n">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="M12" t="n">
-        <v>165</v>
+        <v>296</v>
       </c>
       <c r="N12" t="n">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="O12" t="n">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="P12" t="n">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="Q12" t="n">
-        <v>467</v>
+        <v>405</v>
       </c>
       <c r="R12" t="n">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="S12" t="n">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="T12" t="n">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="U12" t="n">
-        <v>197</v>
-      </c>
-      <c r="V12" t="n">
         <v>169</v>
       </c>
     </row>
@@ -1366,60 +1328,57 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="R13" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="S13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="T13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
-      </c>
-      <c r="V13" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1443,57 +1402,54 @@
         <v>2</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="M14" t="n">
         <v>4</v>
       </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P14" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="n">
+        <v>22</v>
+      </c>
+      <c r="R14" t="n">
+        <v>20</v>
+      </c>
+      <c r="S14" t="n">
+        <v>31</v>
+      </c>
+      <c r="T14" t="n">
         <v>16</v>
       </c>
-      <c r="R14" t="n">
-        <v>22</v>
-      </c>
-      <c r="S14" t="n">
-        <v>20</v>
-      </c>
-      <c r="T14" t="n">
-        <v>31</v>
-      </c>
       <c r="U14" t="n">
-        <v>16</v>
-      </c>
-      <c r="V14" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1514,60 +1470,57 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
         <v>6</v>
       </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="K15" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="L15" t="n">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="M15" t="n">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="N15" t="n">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="O15" t="n">
-        <v>332</v>
+        <v>500</v>
       </c>
       <c r="P15" t="n">
-        <v>500</v>
+        <v>627</v>
       </c>
       <c r="Q15" t="n">
-        <v>627</v>
+        <v>766</v>
       </c>
       <c r="R15" t="n">
-        <v>766</v>
+        <v>669</v>
       </c>
       <c r="S15" t="n">
-        <v>669</v>
+        <v>599</v>
       </c>
       <c r="T15" t="n">
-        <v>599</v>
+        <v>431</v>
       </c>
       <c r="U15" t="n">
-        <v>431</v>
-      </c>
-      <c r="V15" t="n">
         <v>372</v>
       </c>
     </row>
@@ -1600,22 +1553,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1639,9 +1592,6 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1662,13 +1612,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="E17" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1713,9 +1663,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1736,60 +1683,57 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="E18" t="n">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F18" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G18" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H18" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I18" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K18" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L18" t="n">
         <v>15</v>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q18" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="R18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>4</v>
-      </c>
-      <c r="V18" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1810,60 +1754,57 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H19" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I19" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J19" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="K19" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="L19" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M19" t="n">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="N19" t="n">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="O19" t="n">
-        <v>239</v>
+        <v>403</v>
       </c>
       <c r="P19" t="n">
-        <v>403</v>
+        <v>601</v>
       </c>
       <c r="Q19" t="n">
-        <v>601</v>
+        <v>1067</v>
       </c>
       <c r="R19" t="n">
-        <v>1067</v>
+        <v>2000</v>
       </c>
       <c r="S19" t="n">
-        <v>2000</v>
+        <v>3247</v>
       </c>
       <c r="T19" t="n">
-        <v>3247</v>
+        <v>4767</v>
       </c>
       <c r="U19" t="n">
-        <v>4767</v>
-      </c>
-      <c r="V19" t="n">
         <v>8755</v>
       </c>
     </row>
@@ -1884,60 +1825,57 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="E20" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G20" t="n">
-        <v>111</v>
+        <v>521</v>
       </c>
       <c r="H20" t="n">
-        <v>521</v>
+        <v>733</v>
       </c>
       <c r="I20" t="n">
-        <v>733</v>
+        <v>681</v>
       </c>
       <c r="J20" t="n">
-        <v>681</v>
+        <v>754</v>
       </c>
       <c r="K20" t="n">
-        <v>754</v>
+        <v>694</v>
       </c>
       <c r="L20" t="n">
-        <v>694</v>
+        <v>657</v>
       </c>
       <c r="M20" t="n">
-        <v>657</v>
+        <v>727</v>
       </c>
       <c r="N20" t="n">
-        <v>727</v>
+        <v>817</v>
       </c>
       <c r="O20" t="n">
-        <v>817</v>
+        <v>778</v>
       </c>
       <c r="P20" t="n">
-        <v>778</v>
+        <v>720</v>
       </c>
       <c r="Q20" t="n">
-        <v>720</v>
+        <v>660</v>
       </c>
       <c r="R20" t="n">
-        <v>660</v>
+        <v>511</v>
       </c>
       <c r="S20" t="n">
-        <v>511</v>
+        <v>399</v>
       </c>
       <c r="T20" t="n">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="U20" t="n">
-        <v>282</v>
-      </c>
-      <c r="V20" t="n">
         <v>287</v>
       </c>
     </row>
@@ -1958,60 +1896,57 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
+        <v>84</v>
+      </c>
+      <c r="H21" t="n">
+        <v>60</v>
+      </c>
+      <c r="I21" t="n">
+        <v>33</v>
+      </c>
+      <c r="J21" t="n">
+        <v>30</v>
+      </c>
+      <c r="K21" t="n">
+        <v>16</v>
+      </c>
+      <c r="L21" t="n">
         <v>12</v>
       </c>
-      <c r="H21" t="n">
-        <v>84</v>
-      </c>
-      <c r="I21" t="n">
-        <v>60</v>
-      </c>
-      <c r="J21" t="n">
-        <v>33</v>
-      </c>
-      <c r="K21" t="n">
-        <v>30</v>
-      </c>
-      <c r="L21" t="n">
-        <v>16</v>
-      </c>
       <c r="M21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
         <v>4</v>
       </c>
       <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
         <v>4</v>
       </c>
-      <c r="T21" t="n">
-        <v>2</v>
-      </c>
       <c r="U21" t="n">
-        <v>4</v>
-      </c>
-      <c r="V21" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2026,7 +1961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2052,95 +1987,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -2163,60 +2093,57 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K2" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="L2" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="M2" t="n">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="N2" t="n">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="O2" t="n">
+        <v>305</v>
+      </c>
+      <c r="P2" t="n">
+        <v>369</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>376</v>
+      </c>
+      <c r="R2" t="n">
+        <v>346</v>
+      </c>
+      <c r="S2" t="n">
+        <v>307</v>
+      </c>
+      <c r="T2" t="n">
         <v>241</v>
       </c>
-      <c r="P2" t="n">
-        <v>305</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>369</v>
-      </c>
-      <c r="R2" t="n">
-        <v>376</v>
-      </c>
-      <c r="S2" t="n">
-        <v>346</v>
-      </c>
-      <c r="T2" t="n">
-        <v>307</v>
-      </c>
       <c r="U2" t="n">
-        <v>241</v>
-      </c>
-      <c r="V2" t="n">
         <v>273</v>
       </c>
     </row>
@@ -2237,60 +2164,57 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="L3" t="n">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="M3" t="n">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="N3" t="n">
-        <v>337</v>
+        <v>744</v>
       </c>
       <c r="O3" t="n">
-        <v>744</v>
+        <v>904</v>
       </c>
       <c r="P3" t="n">
-        <v>904</v>
+        <v>1268</v>
       </c>
       <c r="Q3" t="n">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="R3" t="n">
-        <v>1273</v>
+        <v>1087</v>
       </c>
       <c r="S3" t="n">
-        <v>1087</v>
+        <v>759</v>
       </c>
       <c r="T3" t="n">
-        <v>759</v>
+        <v>454</v>
       </c>
       <c r="U3" t="n">
-        <v>454</v>
-      </c>
-      <c r="V3" t="n">
         <v>281</v>
       </c>
     </row>
@@ -2314,57 +2238,54 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="P4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" t="n">
         <v>21</v>
       </c>
-      <c r="Q4" t="n">
-        <v>16</v>
-      </c>
-      <c r="R4" t="n">
-        <v>25</v>
-      </c>
       <c r="S4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="T4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
-      </c>
-      <c r="V4" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2385,60 +2306,57 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L5" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="N5" t="n">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="O5" t="n">
-        <v>315</v>
+        <v>470</v>
       </c>
       <c r="P5" t="n">
-        <v>470</v>
+        <v>702</v>
       </c>
       <c r="Q5" t="n">
-        <v>702</v>
+        <v>839</v>
       </c>
       <c r="R5" t="n">
-        <v>839</v>
+        <v>812</v>
       </c>
       <c r="S5" t="n">
-        <v>812</v>
+        <v>679</v>
       </c>
       <c r="T5" t="n">
-        <v>679</v>
+        <v>492</v>
       </c>
       <c r="U5" t="n">
-        <v>492</v>
-      </c>
-      <c r="V5" t="n">
         <v>392</v>
       </c>
     </row>
@@ -2459,62 +2377,59 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
+        <v>13</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19</v>
+      </c>
+      <c r="O6" t="n">
+        <v>27</v>
+      </c>
+      <c r="P6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>23</v>
+      </c>
+      <c r="R6" t="n">
+        <v>16</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14</v>
+      </c>
+      <c r="T6" t="n">
         <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>13</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15</v>
-      </c>
-      <c r="O6" t="n">
-        <v>19</v>
-      </c>
-      <c r="P6" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>17</v>
-      </c>
-      <c r="R6" t="n">
-        <v>23</v>
-      </c>
-      <c r="S6" t="n">
-        <v>16</v>
-      </c>
-      <c r="T6" t="n">
-        <v>14</v>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2533,60 +2448,57 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" t="n">
         <v>18</v>
       </c>
-      <c r="F7" t="n">
-        <v>21</v>
-      </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I7" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J7" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K7" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L7" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M7" t="n">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="N7" t="n">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="O7" t="n">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="P7" t="n">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="Q7" t="n">
-        <v>426</v>
+        <v>676</v>
       </c>
       <c r="R7" t="n">
-        <v>676</v>
+        <v>901</v>
       </c>
       <c r="S7" t="n">
-        <v>901</v>
+        <v>969</v>
       </c>
       <c r="T7" t="n">
-        <v>969</v>
+        <v>1013</v>
       </c>
       <c r="U7" t="n">
-        <v>1013</v>
-      </c>
-      <c r="V7" t="n">
         <v>1145</v>
       </c>
     </row>
@@ -2628,39 +2540,36 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,9 +2643,6 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2755,60 +2661,57 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="J10" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="L10" t="n">
-        <v>272</v>
+        <v>436</v>
       </c>
       <c r="M10" t="n">
-        <v>436</v>
+        <v>855</v>
       </c>
       <c r="N10" t="n">
-        <v>855</v>
+        <v>1443</v>
       </c>
       <c r="O10" t="n">
-        <v>1443</v>
+        <v>2116</v>
       </c>
       <c r="P10" t="n">
-        <v>2116</v>
+        <v>2673</v>
       </c>
       <c r="Q10" t="n">
-        <v>2673</v>
+        <v>3001</v>
       </c>
       <c r="R10" t="n">
-        <v>3001</v>
+        <v>2666</v>
       </c>
       <c r="S10" t="n">
-        <v>2666</v>
+        <v>2367</v>
       </c>
       <c r="T10" t="n">
-        <v>2367</v>
+        <v>1766</v>
       </c>
       <c r="U10" t="n">
-        <v>1766</v>
-      </c>
-      <c r="V10" t="n">
         <v>1778</v>
       </c>
     </row>
@@ -2829,60 +2732,57 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>32</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28</v>
+      </c>
+      <c r="H11" t="n">
         <v>45</v>
-      </c>
-      <c r="E11" t="n">
-        <v>32</v>
-      </c>
-      <c r="F11" t="n">
-        <v>27</v>
-      </c>
-      <c r="G11" t="n">
-        <v>29</v>
-      </c>
-      <c r="H11" t="n">
-        <v>28</v>
       </c>
       <c r="I11" t="n">
         <v>45</v>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K11" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L11" t="n">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="N11" t="n">
-        <v>193</v>
+        <v>335</v>
       </c>
       <c r="O11" t="n">
-        <v>335</v>
+        <v>539</v>
       </c>
       <c r="P11" t="n">
-        <v>539</v>
+        <v>767</v>
       </c>
       <c r="Q11" t="n">
-        <v>767</v>
+        <v>1134</v>
       </c>
       <c r="R11" t="n">
-        <v>1134</v>
+        <v>1259</v>
       </c>
       <c r="S11" t="n">
-        <v>1259</v>
+        <v>1199</v>
       </c>
       <c r="T11" t="n">
-        <v>1199</v>
+        <v>1054</v>
       </c>
       <c r="U11" t="n">
-        <v>1054</v>
-      </c>
-      <c r="V11" t="n">
         <v>1128</v>
       </c>
     </row>
@@ -2903,60 +2803,57 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
         <v>7</v>
       </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I12" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J12" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="K12" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="L12" t="n">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="N12" t="n">
-        <v>266</v>
+        <v>367</v>
       </c>
       <c r="O12" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P12" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q12" t="n">
-        <v>359</v>
+        <v>257</v>
       </c>
       <c r="R12" t="n">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="S12" t="n">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="T12" t="n">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="U12" t="n">
-        <v>101</v>
-      </c>
-      <c r="V12" t="n">
         <v>87</v>
       </c>
     </row>
@@ -2977,34 +2874,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
@@ -3013,24 +2910,21 @@
         <v>5</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
+        <v>12</v>
+      </c>
+      <c r="R13" t="n">
+        <v>21</v>
+      </c>
+      <c r="S13" t="n">
+        <v>15</v>
+      </c>
+      <c r="T13" t="n">
         <v>7</v>
       </c>
-      <c r="R13" t="n">
-        <v>12</v>
-      </c>
-      <c r="S13" t="n">
-        <v>21</v>
-      </c>
-      <c r="T13" t="n">
-        <v>15</v>
-      </c>
       <c r="U13" t="n">
-        <v>7</v>
-      </c>
-      <c r="V13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3051,62 +2945,59 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U14" t="n">
         <v>7</v>
       </c>
-      <c r="V14" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3134,51 +3025,48 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L15" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="M15" t="n">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="N15" t="n">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="O15" t="n">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="P15" t="n">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="Q15" t="n">
-        <v>418</v>
+        <v>524</v>
       </c>
       <c r="R15" t="n">
-        <v>524</v>
+        <v>453</v>
       </c>
       <c r="S15" t="n">
-        <v>453</v>
+        <v>374</v>
       </c>
       <c r="T15" t="n">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="U15" t="n">
-        <v>269</v>
-      </c>
-      <c r="V15" t="n">
         <v>236</v>
       </c>
     </row>
@@ -3252,9 +3140,6 @@
       <c r="U16" t="n">
         <v>0</v>
       </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3273,13 +3158,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -3324,9 +3209,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,60 +3229,57 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H18" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I18" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q18" t="n">
         <v>5</v>
       </c>
-      <c r="Q18" t="n">
-        <v>8</v>
-      </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
-      </c>
-      <c r="V18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3421,60 +3300,57 @@
         </is>
       </c>
       <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F19" t="n">
         <v>7</v>
       </c>
-      <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13</v>
-      </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H19" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K19" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L19" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M19" t="n">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="N19" t="n">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="O19" t="n">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="P19" t="n">
-        <v>256</v>
+        <v>370</v>
       </c>
       <c r="Q19" t="n">
-        <v>370</v>
+        <v>584</v>
       </c>
       <c r="R19" t="n">
-        <v>584</v>
+        <v>1027</v>
       </c>
       <c r="S19" t="n">
-        <v>1027</v>
+        <v>1533</v>
       </c>
       <c r="T19" t="n">
-        <v>1533</v>
+        <v>1945</v>
       </c>
       <c r="U19" t="n">
-        <v>1945</v>
-      </c>
-      <c r="V19" t="n">
         <v>3421</v>
       </c>
     </row>
@@ -3495,60 +3371,57 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F20" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G20" t="n">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="H20" t="n">
-        <v>353</v>
+        <v>578</v>
       </c>
       <c r="I20" t="n">
-        <v>578</v>
+        <v>530</v>
       </c>
       <c r="J20" t="n">
-        <v>530</v>
+        <v>621</v>
       </c>
       <c r="K20" t="n">
-        <v>621</v>
+        <v>575</v>
       </c>
       <c r="L20" t="n">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="M20" t="n">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="N20" t="n">
-        <v>599</v>
+        <v>699</v>
       </c>
       <c r="O20" t="n">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="P20" t="n">
-        <v>657</v>
+        <v>569</v>
       </c>
       <c r="Q20" t="n">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="R20" t="n">
-        <v>495</v>
+        <v>363</v>
       </c>
       <c r="S20" t="n">
-        <v>363</v>
+        <v>259</v>
       </c>
       <c r="T20" t="n">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="U20" t="n">
-        <v>170</v>
-      </c>
-      <c r="V20" t="n">
         <v>141</v>
       </c>
     </row>
@@ -3572,57 +3445,54 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H21" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I21" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>10</v>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
         <v>5</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3637,7 +3507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3663,95 +3533,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -3774,60 +3639,57 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
         <v>23</v>
       </c>
-      <c r="F2" t="n">
-        <v>13</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8</v>
-      </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M2" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="N2" t="n">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="O2" t="n">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P2" t="n">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="Q2" t="n">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="R2" t="n">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="S2" t="n">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="T2" t="n">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="U2" t="n">
-        <v>280</v>
-      </c>
-      <c r="V2" t="n">
         <v>283</v>
       </c>
     </row>
@@ -3848,60 +3710,57 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
         <v>27</v>
       </c>
-      <c r="F3" t="n">
-        <v>13</v>
-      </c>
       <c r="G3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J3" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L3" t="n">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="M3" t="n">
-        <v>197</v>
+        <v>370</v>
       </c>
       <c r="N3" t="n">
-        <v>370</v>
+        <v>563</v>
       </c>
       <c r="O3" t="n">
-        <v>563</v>
+        <v>736</v>
       </c>
       <c r="P3" t="n">
-        <v>736</v>
+        <v>896</v>
       </c>
       <c r="Q3" t="n">
-        <v>896</v>
+        <v>978</v>
       </c>
       <c r="R3" t="n">
-        <v>978</v>
+        <v>728</v>
       </c>
       <c r="S3" t="n">
-        <v>728</v>
+        <v>596</v>
       </c>
       <c r="T3" t="n">
-        <v>596</v>
+        <v>410</v>
       </c>
       <c r="U3" t="n">
-        <v>410</v>
-      </c>
-      <c r="V3" t="n">
         <v>254</v>
       </c>
     </row>
@@ -3922,60 +3781,57 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
       <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>3</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>13</v>
-      </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S4" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>15</v>
-      </c>
-      <c r="V4" t="n">
         <v>21</v>
       </c>
     </row>
@@ -3999,57 +3855,54 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L5" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M5" t="n">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="N5" t="n">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="O5" t="n">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="P5" t="n">
-        <v>349</v>
+        <v>589</v>
       </c>
       <c r="Q5" t="n">
-        <v>589</v>
+        <v>782</v>
       </c>
       <c r="R5" t="n">
-        <v>782</v>
+        <v>872</v>
       </c>
       <c r="S5" t="n">
-        <v>872</v>
+        <v>797</v>
       </c>
       <c r="T5" t="n">
-        <v>797</v>
+        <v>729</v>
       </c>
       <c r="U5" t="n">
-        <v>729</v>
-      </c>
-      <c r="V5" t="n">
         <v>573</v>
       </c>
     </row>
@@ -4079,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -4088,42 +3941,39 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
+        <v>13</v>
+      </c>
+      <c r="P6" t="n">
         <v>8</v>
       </c>
-      <c r="P6" t="n">
-        <v>13</v>
-      </c>
       <c r="Q6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
-      </c>
-      <c r="V6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4147,57 +3997,54 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n">
         <v>15</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21</v>
+      </c>
+      <c r="K7" t="n">
         <v>17</v>
       </c>
-      <c r="G7" t="n">
-        <v>14</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>21</v>
-      </c>
       <c r="L7" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M7" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N7" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O7" t="n">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="P7" t="n">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="Q7" t="n">
-        <v>226</v>
+        <v>455</v>
       </c>
       <c r="R7" t="n">
-        <v>455</v>
+        <v>760</v>
       </c>
       <c r="S7" t="n">
-        <v>760</v>
+        <v>1064</v>
       </c>
       <c r="T7" t="n">
-        <v>1064</v>
+        <v>1258</v>
       </c>
       <c r="U7" t="n">
-        <v>1258</v>
-      </c>
-      <c r="V7" t="n">
         <v>1688</v>
       </c>
     </row>
@@ -4254,24 +4101,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
         <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4345,9 +4189,6 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4366,60 +4207,57 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K10" t="n">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="L10" t="n">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="M10" t="n">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="N10" t="n">
-        <v>295</v>
+        <v>534</v>
       </c>
       <c r="O10" t="n">
-        <v>534</v>
+        <v>778</v>
       </c>
       <c r="P10" t="n">
-        <v>778</v>
+        <v>1172</v>
       </c>
       <c r="Q10" t="n">
-        <v>1172</v>
+        <v>1708</v>
       </c>
       <c r="R10" t="n">
-        <v>1708</v>
+        <v>2066</v>
       </c>
       <c r="S10" t="n">
-        <v>2066</v>
+        <v>2244</v>
       </c>
       <c r="T10" t="n">
-        <v>2244</v>
+        <v>2188</v>
       </c>
       <c r="U10" t="n">
-        <v>2188</v>
-      </c>
-      <c r="V10" t="n">
         <v>2416</v>
       </c>
     </row>
@@ -4440,60 +4278,57 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
         <v>22</v>
       </c>
       <c r="F11" t="n">
+        <v>25</v>
+      </c>
+      <c r="G11" t="n">
         <v>22</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>25</v>
       </c>
-      <c r="H11" t="n">
-        <v>22</v>
-      </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="K11" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L11" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M11" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="N11" t="n">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="O11" t="n">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="P11" t="n">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="Q11" t="n">
-        <v>324</v>
+        <v>503</v>
       </c>
       <c r="R11" t="n">
-        <v>503</v>
+        <v>770</v>
       </c>
       <c r="S11" t="n">
-        <v>770</v>
+        <v>884</v>
       </c>
       <c r="T11" t="n">
-        <v>884</v>
+        <v>932</v>
       </c>
       <c r="U11" t="n">
-        <v>932</v>
-      </c>
-      <c r="V11" t="n">
         <v>1212</v>
       </c>
     </row>
@@ -4514,60 +4349,57 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
         <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M12" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O12" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="P12" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="Q12" t="n">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="R12" t="n">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="S12" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="T12" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="U12" t="n">
-        <v>96</v>
-      </c>
-      <c r="V12" t="n">
         <v>82</v>
       </c>
     </row>
@@ -4594,54 +4426,51 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R13" t="n">
         <v>14</v>
       </c>
       <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="n">
         <v>14</v>
       </c>
-      <c r="T13" t="n">
-        <v>10</v>
-      </c>
       <c r="U13" t="n">
-        <v>14</v>
-      </c>
-      <c r="V13" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4662,60 +4491,57 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
         <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>8</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T14" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
-        <v>9</v>
-      </c>
-      <c r="V14" t="n">
         <v>16</v>
       </c>
     </row>
@@ -4736,60 +4562,57 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K15" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L15" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M15" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N15" t="n">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="O15" t="n">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="P15" t="n">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="Q15" t="n">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="R15" t="n">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="S15" t="n">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="T15" t="n">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="U15" t="n">
-        <v>162</v>
-      </c>
-      <c r="V15" t="n">
         <v>136</v>
       </c>
     </row>
@@ -4822,22 +4645,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -4861,9 +4684,6 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4884,13 +4704,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -4935,9 +4755,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4958,60 +4775,57 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H18" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
+        <v>11</v>
+      </c>
+      <c r="K18" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>11</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
+        <v>8</v>
+      </c>
+      <c r="N18" t="n">
         <v>6</v>
       </c>
-      <c r="M18" t="n">
-        <v>11</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8</v>
-      </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P18" t="n">
         <v>9</v>
       </c>
       <c r="Q18" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5032,60 +4846,57 @@
         </is>
       </c>
       <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" t="n">
-        <v>7</v>
-      </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>23</v>
+      </c>
+      <c r="I19" t="n">
         <v>16</v>
       </c>
-      <c r="H19" t="n">
-        <v>15</v>
-      </c>
-      <c r="I19" t="n">
-        <v>23</v>
-      </c>
       <c r="J19" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K19" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L19" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M19" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N19" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="O19" t="n">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="P19" t="n">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="Q19" t="n">
-        <v>231</v>
+        <v>483</v>
       </c>
       <c r="R19" t="n">
-        <v>483</v>
+        <v>973</v>
       </c>
       <c r="S19" t="n">
-        <v>973</v>
+        <v>1714</v>
       </c>
       <c r="T19" t="n">
-        <v>1714</v>
+        <v>2822</v>
       </c>
       <c r="U19" t="n">
-        <v>2822</v>
-      </c>
-      <c r="V19" t="n">
         <v>5334</v>
       </c>
     </row>
@@ -5106,60 +4917,57 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="H20" t="n">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="I20" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J20" t="n">
+        <v>133</v>
+      </c>
+      <c r="K20" t="n">
+        <v>119</v>
+      </c>
+      <c r="L20" t="n">
+        <v>120</v>
+      </c>
+      <c r="M20" t="n">
+        <v>128</v>
+      </c>
+      <c r="N20" t="n">
+        <v>118</v>
+      </c>
+      <c r="O20" t="n">
+        <v>121</v>
+      </c>
+      <c r="P20" t="n">
         <v>151</v>
       </c>
-      <c r="K20" t="n">
-        <v>133</v>
-      </c>
-      <c r="L20" t="n">
-        <v>119</v>
-      </c>
-      <c r="M20" t="n">
-        <v>120</v>
-      </c>
-      <c r="N20" t="n">
-        <v>128</v>
-      </c>
-      <c r="O20" t="n">
-        <v>118</v>
-      </c>
-      <c r="P20" t="n">
-        <v>121</v>
-      </c>
       <c r="Q20" t="n">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="R20" t="n">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="S20" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="T20" t="n">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="U20" t="n">
-        <v>112</v>
-      </c>
-      <c r="V20" t="n">
         <v>146</v>
       </c>
     </row>
@@ -5180,60 +4988,57 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" t="n">
         <v>2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4</v>
+      </c>
+      <c r="P21" t="n">
         <v>2</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
         <v>3</v>
       </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
       <c r="U21" t="n">
-        <v>3</v>
-      </c>
-      <c r="V21" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/norm.cause-of-death-2015.xlsx
+++ b/data/norm.cause-of-death-2015.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
